--- a/runup/runup.xlsx
+++ b/runup/runup.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4BCC60-A28E-476C-BE38-D323FA7DC3AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB800146-050C-4318-A025-6465031D8249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22265" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22265" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solitary" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>Contact information: Peter Lo &lt;peterhylo@ntu.edu.tw&gt;</t>
   </si>
   <si>
-    <t>Please cite: Lo, P. H.-Y., Chen, W.-Y., Huang, C.-J. (2024) Laboratory investigation on the runup of leading-depression N-waves on a uniform slope. Coastal Engineering, XXX(X), XXXX. doi:XXXxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
     <t>B,(!)</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>@@@@@ FILES LAST UPDATED ON 2024/01/31 @@@@@</t>
+  </si>
+  <si>
+    <t>Please cite: Lo, P. H.-Y., Chen, W.-Y., Huang, C.-J. (2024) Laboratory investigation on the runup of leading-depression N-waves on a uniform slope. Coastal Engineering, 189, 104479. doi:10.1016/j.coastaleng.2024.104479</t>
   </si>
 </sst>
 </file>
@@ -759,6 +759,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,55 +1082,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -1148,123 +1148,123 @@
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="A11" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -1282,22 +1282,22 @@
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -2396,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8601DF-499C-44FF-A081-D8703BDADF08}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,55 +2407,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2473,142 +2473,142 @@
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="A5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="A6" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:13" s="10" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -3037,7 +3037,7 @@
         <v>186.539772542387</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>36</v>
@@ -3047,10 +3047,10 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -3070,7 +3070,7 @@
         <v>204.53593385204201</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>36</v>
@@ -3080,10 +3080,10 @@
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
         <v>220.15209373168301</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>36</v>
@@ -3113,10 +3113,10 @@
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
         <v>236.38495861605901</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>36</v>
@@ -3146,10 +3146,10 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3713,7 +3713,7 @@
       <c r="K41" s="29"/>
       <c r="L41" s="19"/>
       <c r="M41" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3736,7 +3736,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
@@ -3744,7 +3744,7 @@
       <c r="K42" s="29"/>
       <c r="L42" s="19"/>
       <c r="M42" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3775,14 +3775,14 @@
       <c r="K43" s="29"/>
       <c r="L43" s="19"/>
       <c r="M43" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="30">
         <v>23.6353838121303</v>
       </c>
       <c r="C44" s="29">
@@ -3795,10 +3795,10 @@
         <v>92.429678426785998</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="29">
         <v>29.876999999999999</v>
@@ -3813,17 +3813,17 @@
         <v>111.71751821525</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="30">
         <v>22.776784845076715</v>
       </c>
       <c r="C45" s="29">
@@ -3836,10 +3836,10 @@
         <v>91.090270553365897</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H45" s="29">
         <v>28.405000000000001</v>
@@ -3854,17 +3854,17 @@
         <v>104.601</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="30">
         <v>21.692241280957091</v>
       </c>
       <c r="C46" s="29">
@@ -3877,10 +3877,10 @@
         <v>87.840203465841597</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="29">
         <v>26.973373384087882</v>
@@ -3895,17 +3895,17 @@
         <v>100.4764</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="30">
         <v>26.176156112662628</v>
       </c>
       <c r="C47" s="29">
@@ -3939,7 +3939,7 @@
         <v>6</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -4462,7 +4462,7 @@
       <c r="K60" s="29"/>
       <c r="L60" s="19"/>
       <c r="M60" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
       <c r="K61" s="29"/>
       <c r="L61" s="19"/>
       <c r="M61" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
       <c r="K62" s="29"/>
       <c r="L62" s="19"/>
       <c r="M62" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -4555,14 +4555,14 @@
       <c r="K63" s="29"/>
       <c r="L63" s="19"/>
       <c r="M63" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64" s="30">
         <v>23.523971414192118</v>
       </c>
       <c r="C64" s="29">
@@ -4586,14 +4586,14 @@
       <c r="K64" s="29"/>
       <c r="L64" s="19"/>
       <c r="M64" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65" s="30">
         <v>20.021088739974108</v>
       </c>
       <c r="C65" s="29">
@@ -4617,14 +4617,14 @@
       <c r="K65" s="29"/>
       <c r="L65" s="19"/>
       <c r="M65" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66" s="30">
         <v>18.176864506954992</v>
       </c>
       <c r="C66" s="29">
@@ -4648,14 +4648,14 @@
       <c r="K66" s="29"/>
       <c r="L66" s="19"/>
       <c r="M66" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67" s="30">
         <v>15.90302222745602</v>
       </c>
       <c r="C67" s="29">
@@ -4679,7 +4679,7 @@
       <c r="K67" s="29"/>
       <c r="L67" s="19"/>
       <c r="M67" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -4710,7 +4710,7 @@
       <c r="K68" s="29"/>
       <c r="L68" s="19"/>
       <c r="M68" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
       <c r="K69" s="29"/>
       <c r="L69" s="19"/>
       <c r="M69" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -4772,7 +4772,7 @@
       <c r="K70" s="29"/>
       <c r="L70" s="19"/>
       <c r="M70" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -4803,14 +4803,14 @@
       <c r="K71" s="29"/>
       <c r="L71" s="19"/>
       <c r="M71" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="30">
         <v>31.838402698532608</v>
       </c>
       <c r="C72" s="29">
@@ -4834,14 +4834,14 @@
       <c r="K72" s="29"/>
       <c r="L72" s="19"/>
       <c r="M72" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="30">
         <v>28.663294710273039</v>
       </c>
       <c r="C73" s="29">
@@ -4865,14 +4865,14 @@
       <c r="K73" s="29"/>
       <c r="L73" s="19"/>
       <c r="M73" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="38">
+      <c r="B74" s="30">
         <v>25.184848665286321</v>
       </c>
       <c r="C74" s="29">
@@ -4896,7 +4896,7 @@
       <c r="K74" s="29"/>
       <c r="L74" s="19"/>
       <c r="M74" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
         <v>6</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -4978,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -5019,7 +5019,7 @@
         <v>6</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -5495,7 +5495,7 @@
       <c r="G89" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="38">
+      <c r="H89" s="30">
         <v>7.2282319527811119</v>
       </c>
       <c r="I89" s="29">
@@ -5536,7 +5536,7 @@
       <c r="G90" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H90" s="38">
+      <c r="H90" s="30">
         <v>7.2027341787868435</v>
       </c>
       <c r="I90" s="29">
@@ -5764,7 +5764,7 @@
       <c r="A96" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="38">
+      <c r="B96" s="30">
         <v>6.2982853669937136</v>
       </c>
       <c r="C96" s="29">
@@ -5805,7 +5805,7 @@
       <c r="A97" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B97" s="30">
         <v>5.7568207282084636</v>
       </c>
       <c r="C97" s="29">
@@ -5823,7 +5823,7 @@
       <c r="G97" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="38">
+      <c r="H97" s="30">
         <v>5.7826343609192801</v>
       </c>
       <c r="I97" s="29">
@@ -5846,7 +5846,7 @@
       <c r="A98" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="38">
+      <c r="B98" s="30">
         <v>5.3432478579845997</v>
       </c>
       <c r="C98" s="29">
@@ -5864,7 +5864,7 @@
       <c r="G98" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H98" s="38">
+      <c r="H98" s="30">
         <v>5.295979421082456</v>
       </c>
       <c r="I98" s="29">
@@ -5887,7 +5887,7 @@
       <c r="A99" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B99" s="30">
         <v>5.3820638682156661</v>
       </c>
       <c r="C99" s="29">
